--- a/WEB_AUTOMATION/dataSheet/tankerReceiveData.xlsx
+++ b/WEB_AUTOMATION/dataSheet/tankerReceiveData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Quantity (Kg)</t>
   </si>
@@ -51,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -73,6 +73,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -81,6 +102,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -88,8 +110,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,9 +188,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,98 +204,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +429,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -450,6 +461,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -461,26 +481,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,6 +500,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -514,19 +523,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
@@ -535,139 +541,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
@@ -1111,6 +1111,84 @@
         <v>12103</v>
       </c>
     </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>120</v>
+      </c>
+      <c r="B5">
+        <v>5.7</v>
+      </c>
+      <c r="C5">
+        <v>10.5</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>12101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>150</v>
+      </c>
+      <c r="B6">
+        <v>5.9</v>
+      </c>
+      <c r="C6">
+        <v>9.9</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>12102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>110</v>
+      </c>
+      <c r="B7">
+        <v>5.8</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>35.6</v>
+      </c>
+      <c r="F7">
+        <v>5.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>12103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
